--- a/results/prop_by_district.xlsx
+++ b/results/prop_by_district.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zackoyafuso/Documents/GitHub/Optimal_Allocation_GoA/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26F617A1-ADC0-EB47-B2D9-C009645ECFEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE018CE-BCD0-1F4E-863F-F76FE539497E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="460" windowWidth="20860" windowHeight="16020" xr2:uid="{A8CDB80C-D01E-D84B-A3DD-E09EB68276DE}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="20780" windowHeight="16020" xr2:uid="{A8CDB80C-D01E-D84B-A3DD-E09EB68276DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57CFDAD-3D90-564F-B11F-B55BBD8E4166}">
-  <dimension ref="A1:W61"/>
+  <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23:W24"/>
+    <sheetView tabSelected="1" topLeftCell="M28" workbookViewId="0">
+      <selection activeCell="Z45" sqref="Z45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -566,13 +566,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -584,16 +584,16 @@
         <v>2</v>
       </c>
       <c r="K4">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -602,13 +602,13 @@
         <v>2</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -622,13 +622,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.28000000000000003</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -640,7 +640,7 @@
         <v>3</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -649,22 +649,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>3</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -678,13 +678,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
       <c r="D6">
-        <v>0.2</v>
+        <v>0.91</v>
       </c>
       <c r="E6">
-        <v>0.56999999999999995</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>4</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -705,25 +705,25 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>4</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -734,52 +734,52 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="D7">
-        <v>0.03</v>
+        <v>0.89</v>
       </c>
       <c r="E7">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>5</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="M7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>5</v>
       </c>
       <c r="S7">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="T7">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="U7">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -790,52 +790,52 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="E8">
-        <v>0.31</v>
+        <v>0.8</v>
       </c>
       <c r="F8">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>6</v>
       </c>
       <c r="K8">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L8">
-        <v>0.17</v>
+        <v>0.86</v>
       </c>
       <c r="M8">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>6</v>
       </c>
       <c r="S8">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="T8">
-        <v>0.03</v>
+        <v>0.95</v>
       </c>
       <c r="U8">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -846,55 +846,55 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.38</v>
+        <v>0.01</v>
       </c>
       <c r="E9">
-        <v>0.32</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F9">
-        <v>0.13</v>
+        <v>0.48</v>
       </c>
       <c r="G9">
-        <v>0.1</v>
+        <v>0.37</v>
       </c>
       <c r="J9">
         <v>7</v>
       </c>
       <c r="K9">
-        <v>0.09</v>
+        <v>0.33</v>
       </c>
       <c r="L9">
-        <v>0.31</v>
+        <v>0.67</v>
       </c>
       <c r="M9">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="R9">
         <v>7</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="V9">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>0.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
@@ -902,31 +902,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.13</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D10">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="E10">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="F10">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="G10">
-        <v>0.17</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J10">
         <v>8</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>8</v>
       </c>
       <c r="S10">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="T10">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="U10">
-        <v>0.05</v>
+        <v>0.97</v>
       </c>
       <c r="V10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
@@ -958,7 +958,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D11">
         <v>0.01</v>
@@ -967,22 +967,22 @@
         <v>0.01</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G11">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="J11">
         <v>9</v>
       </c>
       <c r="K11">
-        <v>0.73</v>
+        <v>0.04</v>
       </c>
       <c r="L11">
-        <v>0.27</v>
+        <v>0.09</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -994,33 +994,51 @@
         <v>9</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0.13</v>
+      </c>
+      <c r="D12">
+        <v>0.24</v>
+      </c>
+      <c r="E12">
+        <v>0.24</v>
+      </c>
+      <c r="F12">
+        <v>0.15</v>
+      </c>
+      <c r="G12">
+        <v>0.23</v>
+      </c>
       <c r="J12">
         <v>10</v>
       </c>
       <c r="K12">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="L12">
-        <v>0.56999999999999995</v>
+        <v>0.1</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1032,131 +1050,113 @@
         <v>10</v>
       </c>
       <c r="S12">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="U12">
-        <v>0.23</v>
+        <v>0.97</v>
       </c>
       <c r="V12">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>0.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
       <c r="J13">
         <v>11</v>
       </c>
       <c r="K13">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.56000000000000005</v>
+        <v>0.01</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="R13">
         <v>11</v>
       </c>
       <c r="S13">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="T13">
-        <v>0.36</v>
+        <v>0.06</v>
       </c>
       <c r="U13">
-        <v>0.26</v>
+        <v>0.16</v>
       </c>
       <c r="V13">
-        <v>0.12</v>
+        <v>0.77</v>
       </c>
       <c r="W13">
-        <v>0.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>12</v>
       </c>
       <c r="K14">
-        <v>0.14000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L14">
-        <v>0.86</v>
+        <v>0.36</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="R14">
         <v>12</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -1164,13 +1164,13 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0.81</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1185,34 +1185,34 @@
         <v>13</v>
       </c>
       <c r="K15">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="L15">
-        <v>0.91</v>
+        <v>0.27</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="R15">
         <v>13</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -1220,13 +1220,13 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>0.14000000000000001</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D16">
-        <v>0.86</v>
+        <v>0.42</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1241,34 +1241,34 @@
         <v>14</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L16">
-        <v>0.26</v>
+        <v>0.01</v>
       </c>
       <c r="M16">
-        <v>0.74</v>
+        <v>0.01</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="R16">
         <v>14</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -1276,13 +1276,13 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1297,25 +1297,25 @@
         <v>15</v>
       </c>
       <c r="K17">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="L17">
-        <v>0.11</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="M17">
-        <v>0.52</v>
+        <v>0.26</v>
       </c>
       <c r="N17">
-        <v>0.35</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R17">
         <v>15</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -1324,24 +1324,24 @@
         <v>0</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="E18">
-        <v>0.68</v>
+        <v>0.79</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1353,36 +1353,36 @@
         <v>16</v>
       </c>
       <c r="S18">
-        <v>0.28000000000000003</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T18">
-        <v>0.72</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0.02</v>
       </c>
       <c r="E19">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="F19">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1412,122 +1412,107 @@
         <v>17</v>
       </c>
       <c r="S19">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="T19">
+        <v>0.01</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
         <v>0.98</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D20">
-        <v>0.01</v>
+        <v>0.32</v>
       </c>
       <c r="E20">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="F20">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="G20">
-        <v>0.63</v>
+        <v>0.15</v>
       </c>
       <c r="J20">
         <v>2</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.35</v>
-      </c>
-      <c r="R20">
-        <v>18</v>
-      </c>
-      <c r="S20">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="T20">
-        <v>0.93</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.35</v>
+        <v>0.01</v>
       </c>
       <c r="E21">
-        <v>0.28999999999999998</v>
+        <v>0.01</v>
       </c>
       <c r="F21">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0.15</v>
+        <v>0.98</v>
       </c>
       <c r="J21">
         <v>3</v>
       </c>
       <c r="K21">
-        <v>7.0000000000000007E-2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.16</v>
+        <v>0</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>10</v>
       </c>
       <c r="R21">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -1541,66 +1526,99 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="G22">
-        <v>0.99</v>
+        <v>0.3</v>
       </c>
       <c r="J22">
         <v>4</v>
       </c>
       <c r="K22">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="L22">
-        <v>0.17</v>
+        <v>0.82</v>
       </c>
       <c r="M22">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.4</v>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0.01</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0.99</v>
+      </c>
       <c r="J23">
         <v>5</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="M23">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.98</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S23">
         <v>1</v>
@@ -1619,56 +1637,35 @@
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
       <c r="J24">
         <v>6</v>
       </c>
       <c r="K24">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="L24">
-        <v>0.31</v>
+        <v>0.99</v>
       </c>
       <c r="M24">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -1678,35 +1675,38 @@
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>7</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1715,16 +1715,16 @@
         <v>0</v>
       </c>
       <c r="R25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S25">
-        <v>0.04</v>
+        <v>1</v>
       </c>
       <c r="T25">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -1735,16 +1735,16 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>0.56999999999999995</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1756,34 +1756,34 @@
         <v>8</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
       <c r="R26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S26">
-        <v>0.01</v>
+        <v>0.21</v>
       </c>
       <c r="T26">
-        <v>0.05</v>
+        <v>0.79</v>
       </c>
       <c r="U26">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -1791,16 +1791,16 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="D27">
-        <v>0.13</v>
+        <v>0.74</v>
       </c>
       <c r="E27">
-        <v>0.56000000000000005</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1812,34 +1812,34 @@
         <v>9</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="O27">
         <v>0</v>
       </c>
       <c r="R27">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S27">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="T27">
-        <v>0.18</v>
+        <v>0.96</v>
       </c>
       <c r="U27">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -1847,16 +1847,16 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>0.4</v>
+        <v>0.03</v>
       </c>
       <c r="D28">
-        <v>0.32</v>
+        <v>0.5</v>
       </c>
       <c r="E28">
-        <v>0.27</v>
+        <v>0.48</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1868,51 +1868,51 @@
         <v>10</v>
       </c>
       <c r="K28">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="L28">
-        <v>0.87</v>
+        <v>0.03</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
       <c r="R28">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="V28">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>0.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29">
-        <v>0.27</v>
+        <v>0.04</v>
       </c>
       <c r="D29">
-        <v>0.24</v>
+        <v>0.08</v>
       </c>
       <c r="E29">
-        <v>0.49</v>
+        <v>0.88</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1924,54 +1924,54 @@
         <v>11</v>
       </c>
       <c r="K29">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="L29">
-        <v>0.8</v>
+        <v>0.01</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="R29">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S29">
         <v>0.04</v>
       </c>
       <c r="T29">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="U29">
-        <v>7.0000000000000007E-2</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="V29">
-        <v>0.09</v>
+        <v>0.3</v>
       </c>
       <c r="W29">
-        <v>0.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="E30">
-        <v>0.34</v>
+        <v>0.15</v>
       </c>
       <c r="F30">
-        <v>0.35</v>
+        <v>0.82</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1980,54 +1980,54 @@
         <v>12</v>
       </c>
       <c r="K30">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="L30">
-        <v>0.43</v>
+        <v>0.2</v>
       </c>
       <c r="M30">
-        <v>0.55000000000000004</v>
+        <v>0.19</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="R30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S30">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="U30">
-        <v>0.01</v>
+        <v>0.39</v>
       </c>
       <c r="V30">
-        <v>0.01</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="W30">
-        <v>0.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="D31">
-        <v>0.23</v>
+        <v>0.38</v>
       </c>
       <c r="E31">
-        <v>0.08</v>
+        <v>0.32</v>
       </c>
       <c r="F31">
-        <v>0.66</v>
+        <v>0.22</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2042,128 +2042,146 @@
         <v>0.02</v>
       </c>
       <c r="M31">
-        <v>0.97</v>
+        <v>0.02</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="R31">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S31">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="T31">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="U31">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="V31">
-        <v>0.12</v>
+        <v>0.76</v>
       </c>
       <c r="W31">
-        <v>0.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B32">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F32">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="G32">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="J32">
         <v>14</v>
       </c>
       <c r="K32">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>0.17</v>
+        <v>0.01</v>
       </c>
       <c r="M32">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="R32">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S32">
-        <v>0.14000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="T32">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="U32">
-        <v>0.23</v>
+        <v>0.03</v>
       </c>
       <c r="V32">
-        <v>0.14000000000000001</v>
+        <v>0.94</v>
       </c>
       <c r="W32">
-        <v>0.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>0.15</v>
+      </c>
+      <c r="D33">
+        <v>0.31</v>
+      </c>
+      <c r="E33">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F33">
+        <v>0.16</v>
+      </c>
+      <c r="G33">
+        <v>0.09</v>
+      </c>
+      <c r="R33">
+        <v>13</v>
+      </c>
+      <c r="S33">
+        <v>0.02</v>
+      </c>
+      <c r="T33">
+        <v>0.06</v>
+      </c>
+      <c r="U33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="V33">
+        <v>0.85</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B34">
         <v>10</v>
       </c>
-      <c r="C33">
-        <v>0.04</v>
-      </c>
-      <c r="D33">
-        <v>0.1</v>
-      </c>
-      <c r="E33">
-        <v>0.08</v>
-      </c>
-      <c r="F33">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G33">
-        <v>0.71</v>
-      </c>
-      <c r="R33">
-        <v>11</v>
-      </c>
-      <c r="S33">
-        <v>0.09</v>
-      </c>
-      <c r="T33">
-        <v>0.37</v>
-      </c>
-      <c r="U33">
-        <v>0.23</v>
-      </c>
-      <c r="V33">
-        <v>0.11</v>
-      </c>
-      <c r="W33">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0.01</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0.98</v>
+      </c>
       <c r="I34" t="s">
         <v>11</v>
       </c>
@@ -2186,10 +2204,10 @@
         <v>0</v>
       </c>
       <c r="R34">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34">
         <v>0</v>
@@ -2198,10 +2216,10 @@
         <v>0</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.2">
@@ -2209,37 +2227,37 @@
         <v>2</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="O35">
-        <v>0.57999999999999996</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S35">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.2">
@@ -2247,37 +2265,37 @@
         <v>3</v>
       </c>
       <c r="K36">
-        <v>7.0000000000000007E-2</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="O36">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S36">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.2">
@@ -2285,28 +2303,28 @@
         <v>4</v>
       </c>
       <c r="K37">
-        <v>0.15</v>
+        <v>0.65</v>
       </c>
       <c r="L37">
-        <v>0.22</v>
+        <v>0.35</v>
       </c>
       <c r="M37">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="O37">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="U37">
         <v>0</v>
@@ -2315,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.2">
@@ -2323,10 +2341,10 @@
         <v>5</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2335,24 +2353,6 @@
         <v>0</v>
       </c>
       <c r="O38">
-        <v>1</v>
-      </c>
-      <c r="R38">
-        <v>16</v>
-      </c>
-      <c r="S38">
-        <v>0.23</v>
-      </c>
-      <c r="T38">
-        <v>0.77</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
         <v>0</v>
       </c>
     </row>
@@ -2361,28 +2361,31 @@
         <v>6</v>
       </c>
       <c r="K39">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="M39">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="O39">
-        <v>0.43</v>
+        <v>0</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>11</v>
       </c>
       <c r="R39">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="S39">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="T39">
-        <v>0.56999999999999995</v>
+        <v>0</v>
       </c>
       <c r="U39">
         <v>0</v>
@@ -2399,13 +2402,13 @@
         <v>7</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2414,13 +2417,13 @@
         <v>0</v>
       </c>
       <c r="R40">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="S40">
-        <v>0.08</v>
+        <v>1</v>
       </c>
       <c r="T40">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="U40">
         <v>0</v>
@@ -2437,13 +2440,13 @@
         <v>8</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2452,13 +2455,13 @@
         <v>0</v>
       </c>
       <c r="R41">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="S41">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="T41">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="U41">
         <v>0</v>
@@ -2475,18 +2478,36 @@
         <v>9</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="N42">
         <v>0</v>
       </c>
       <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>4</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
         <v>0</v>
       </c>
     </row>
@@ -2495,13 +2516,13 @@
         <v>10</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>0.09</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -2509,11 +2530,8 @@
       <c r="O43">
         <v>0</v>
       </c>
-      <c r="Q43" t="s">
-        <v>11</v>
-      </c>
       <c r="R43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S43">
         <v>1</v>
@@ -2536,34 +2554,34 @@
         <v>11</v>
       </c>
       <c r="K44">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="O44">
         <v>0</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S44">
-        <v>0.1</v>
+        <v>0.33</v>
       </c>
       <c r="T44">
-        <v>0.28999999999999998</v>
+        <v>0.67</v>
       </c>
       <c r="U44">
-        <v>0.57999999999999996</v>
+        <v>0</v>
       </c>
       <c r="V44">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="W44">
         <v>0</v>
@@ -2574,34 +2592,34 @@
         <v>12</v>
       </c>
       <c r="K45">
-        <v>0.01</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L45">
+        <v>0.03</v>
+      </c>
+      <c r="M45">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N45">
+        <v>0.84</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>7</v>
+      </c>
+      <c r="S45">
+        <v>0.01</v>
+      </c>
+      <c r="T45">
         <v>0.99</v>
       </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>3</v>
-      </c>
-      <c r="S45">
-        <v>0.06</v>
-      </c>
-      <c r="T45">
-        <v>0.3</v>
-      </c>
       <c r="U45">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="V45">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="W45">
         <v>0</v>
@@ -2612,34 +2630,34 @@
         <v>13</v>
       </c>
       <c r="K46">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M46">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="R46">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S46">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="T46">
-        <v>0.3</v>
+        <v>0.97</v>
       </c>
       <c r="U46">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="V46">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="W46">
         <v>0</v>
@@ -2653,51 +2671,69 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="M47">
-        <v>0.59</v>
+        <v>0.01</v>
       </c>
       <c r="N47">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="R47">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S47">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T47">
-        <v>0.04</v>
+        <v>0.17</v>
       </c>
       <c r="U47">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="V47">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="W47">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="J48">
+        <v>15</v>
+      </c>
+      <c r="K48">
+        <v>0.13</v>
+      </c>
+      <c r="L48">
+        <v>0.27</v>
+      </c>
+      <c r="M48">
+        <v>0.25</v>
+      </c>
+      <c r="N48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O48">
+        <v>0.22</v>
+      </c>
       <c r="R48">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S48">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="T48">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="U48">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="V48">
-        <v>0.55000000000000004</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="W48">
         <v>0</v>
@@ -2705,262 +2741,162 @@
     </row>
     <row r="49" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R49">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="T49">
-        <v>0.01</v>
+        <v>0.47</v>
       </c>
       <c r="U49">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="V49">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="W49">
-        <v>0.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R50">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S50">
-        <v>0.18</v>
+        <v>0.03</v>
       </c>
       <c r="T50">
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
       <c r="U50">
-        <v>0.32</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="V50">
-        <v>0.19</v>
+        <v>0.8</v>
       </c>
       <c r="W50">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R51">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="S51">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="U51">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="V51">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="W51">
-        <v>0.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R52">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="S52">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="T52">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="U52">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="V52">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="W52">
-        <v>0.26</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="53" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R53">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="S53">
         <v>0.01</v>
       </c>
       <c r="T53">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="U53">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="V53">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="W53">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="54" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R54">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="S54">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="U54">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="V54">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="W54">
-        <v>0</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="55" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R55">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="S55">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="T55">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="U55">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="V55">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W55">
-        <v>0</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="56" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R56">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="S56">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="T56">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="U56">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="V56">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="W56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="18:23" x14ac:dyDescent="0.2">
-      <c r="R57">
-        <v>15</v>
-      </c>
-      <c r="S57">
-        <v>0.11</v>
-      </c>
-      <c r="T57">
-        <v>0.68</v>
-      </c>
-      <c r="U57">
-        <v>0.21</v>
-      </c>
-      <c r="V57">
-        <v>0</v>
-      </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="18:23" x14ac:dyDescent="0.2">
-      <c r="R58">
-        <v>16</v>
-      </c>
-      <c r="S58">
-        <v>0.48</v>
-      </c>
-      <c r="T58">
-        <v>0.32</v>
-      </c>
-      <c r="U58">
-        <v>0.21</v>
-      </c>
-      <c r="V58">
-        <v>0</v>
-      </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="18:23" x14ac:dyDescent="0.2">
-      <c r="R59">
-        <v>17</v>
-      </c>
-      <c r="S59">
-        <v>0.04</v>
-      </c>
-      <c r="T59">
-        <v>0.03</v>
-      </c>
-      <c r="U59">
-        <v>0.93</v>
-      </c>
-      <c r="V59">
-        <v>0</v>
-      </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="18:23" x14ac:dyDescent="0.2">
-      <c r="R60">
-        <v>18</v>
-      </c>
-      <c r="S60">
-        <v>0.2</v>
-      </c>
-      <c r="T60">
-        <v>0.22</v>
-      </c>
-      <c r="U60">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="18:23" x14ac:dyDescent="0.2">
-      <c r="R61">
-        <v>19</v>
-      </c>
-      <c r="S61">
-        <v>0.01</v>
-      </c>
-      <c r="T61">
-        <v>0.01</v>
-      </c>
-      <c r="U61">
-        <v>0.34</v>
-      </c>
-      <c r="V61">
-        <v>0.63</v>
-      </c>
-      <c r="W61">
-        <v>0</v>
+        <v>0.19</v>
       </c>
     </row>
   </sheetData>
